--- a/data/08-01-2026/leaderboard.xlsx
+++ b/data/08-01-2026/leaderboard.xlsx
@@ -441,19 +441,19 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>46038</v>
+        <v>15346</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>38.76</v>
+        <v>12.92</v>
       </c>
       <c r="F2">
-        <v>409.08</v>
+        <v>136.45</v>
       </c>
       <c r="G2">
-        <v>2085</v>
+        <v>695</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
